--- a/Sample_v2/running_logs/logs.xlsx
+++ b/Sample_v2/running_logs/logs.xlsx
@@ -407,13 +407,12 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+      <selection activeCell="A2" sqref="A2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
